--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCD/10/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCD/10/seed5/result_data_KNN.xlsx
@@ -536,7 +536,7 @@
         <v>7.87</v>
       </c>
       <c r="C6" t="n">
-        <v>-12.63</v>
+        <v>-13.1</v>
       </c>
       <c r="D6" t="n">
         <v>-8.59</v>
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-14.104</v>
+        <v>-13.079</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -567,7 +567,7 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.359999999999999</v>
+        <v>6.258999999999999</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -632,10 +632,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.77</v>
+        <v>-21.531</v>
       </c>
       <c r="B12" t="n">
-        <v>6.886000000000001</v>
+        <v>6.842000000000001</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -669,7 +669,7 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>7.694</v>
+        <v>6.622</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
@@ -757,10 +757,10 @@
         <v>5.44</v>
       </c>
       <c r="C19" t="n">
-        <v>-13.2</v>
+        <v>-12.955</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.946000000000001</v>
+        <v>-7.722</v>
       </c>
       <c r="E19" t="n">
         <v>13.12</v>
@@ -791,7 +791,7 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-14.104</v>
+        <v>-13.079</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>5.652</v>
+        <v>6.593000000000001</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -842,7 +842,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.462</v>
+        <v>-12.638</v>
       </c>
       <c r="D24" t="n">
         <v>-9.24</v>
